--- a/src/gateway/SZJS_gateway_module/FAC/FAC_so_files/FW_1_66/主机协议列表_V1_03.xlsx
+++ b/src/gateway/SZJS_gateway_module/FAC/FAC_so_files/FW_1_66/主机协议列表_V1_03.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,12 +815,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,9 +897,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,6 +949,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,24 +1142,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1128,7 +1167,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -1136,9 +1175,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1"/>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1215,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1233,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1251,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1269,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1287,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>64</v>
       </c>
@@ -1266,7 +1305,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>108</v>
       </c>
@@ -1284,7 +1323,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
@@ -1302,7 +1341,7 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1320,7 +1359,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>126</v>
       </c>
@@ -1338,7 +1377,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>72</v>
       </c>
@@ -1356,7 +1395,7 @@
       </c>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1">
+    <row r="17" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>131</v>
       </c>
@@ -1374,10 +1413,10 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1">
+    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1415,7 +1454,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1472,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -1451,7 +1490,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
@@ -1469,7 +1508,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
@@ -1487,7 +1526,7 @@
       </c>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>67</v>
       </c>
@@ -1505,7 +1544,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1562,7 @@
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -1541,7 +1580,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>69</v>
       </c>
@@ -1559,7 +1598,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>70</v>
       </c>
@@ -1577,7 +1616,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -1595,7 +1634,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>72</v>
       </c>
@@ -1613,7 +1652,7 @@
       </c>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -1631,7 +1670,7 @@
       </c>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>74</v>
       </c>
@@ -1649,7 +1688,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>75</v>
       </c>
@@ -1667,7 +1706,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>76</v>
       </c>
@@ -1685,7 +1724,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
@@ -1703,7 +1742,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>78</v>
       </c>
@@ -1719,7 +1758,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>79</v>
       </c>
@@ -1737,7 +1776,7 @@
       </c>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" thickBot="1">
+    <row r="39" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>81</v>
       </c>
@@ -1761,12 +1800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,12 +1813,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/gateway/SZJS_gateway_module/FAC/FAC_so_files/FW_1_66/主机协议列表_V1_03.xlsx
+++ b/src/gateway/SZJS_gateway_module/FAC/FAC_so_files/FW_1_66/主机协议列表_V1_03.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1365" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="168">
   <si>
     <t>主机型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,14 +557,134 @@
   </si>
   <si>
     <t>232接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京福赛尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10021.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北大青鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JB-TG-JBF-11SF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10022.so</t>
+  </si>
+  <si>
+    <t>无锡五洲国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10023.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京利达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10024.so</t>
+  </si>
+  <si>
+    <t>海湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GST5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10025.so</t>
+  </si>
+  <si>
+    <t>2400 8N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JB-QBH-FS5101W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10026.so</t>
+  </si>
+  <si>
+    <t>9600 8N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT11</t>
+  </si>
+  <si>
+    <t>FAC_10027.so</t>
+  </si>
+  <si>
+    <t>2400 7E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州万达酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10028.so</t>
+  </si>
+  <si>
+    <t>1200 7E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰州万达写字楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201 8N1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-W32PS-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAC_10029.so</t>
+  </si>
+  <si>
+    <t>专用程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -805,6 +925,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -815,12 +937,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -862,7 +987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,9 +1019,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,6 +1071,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1103,14 +1264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -1120,7 +1281,7 @@
     <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -1128,7 +1289,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -1136,9 +1297,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1"/>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1337,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1355,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1373,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1391,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1409,7 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>64</v>
       </c>
@@ -1266,7 +1427,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>108</v>
       </c>
@@ -1284,7 +1445,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>114</v>
       </c>
@@ -1302,7 +1463,7 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>122</v>
       </c>
@@ -1320,7 +1481,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>126</v>
       </c>
@@ -1338,7 +1499,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>72</v>
       </c>
@@ -1356,402 +1517,624 @@
       </c>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="4" t="s">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="17">
+        <v>232</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="17">
+        <v>232</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="17">
+        <v>232</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="17">
+        <v>232</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="17">
+        <v>232</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="17">
+        <v>232</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="17">
+        <v>232</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="17">
+        <v>232</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="17">
+        <v>232</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7" t="s">
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A39" s="14" t="s">
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1761,12 +2144,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,12 +2157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
